--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Equippp Social Impact Technologies Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Equippp Social Impact Technologies Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -630,16 +630,16 @@
         <v>10.73</v>
       </c>
       <c r="R2">
-        <v>2.693571428571429</v>
+        <v>2.69</v>
       </c>
       <c r="S2">
-        <v>2.676428571428572</v>
+        <v>2.68</v>
       </c>
       <c r="T2">
-        <v>2.693571428571429</v>
+        <v>2.69</v>
       </c>
       <c r="U2">
-        <v>2.676428571428572</v>
+        <v>2.68</v>
       </c>
       <c r="V2">
         <v>0.55</v>
@@ -701,16 +701,16 @@
         <v>72.94</v>
       </c>
       <c r="R3">
-        <v>2.693571428571429</v>
+        <v>2.69</v>
       </c>
       <c r="S3">
-        <v>2.676428571428572</v>
+        <v>2.68</v>
       </c>
       <c r="T3">
-        <v>2.693571428571429</v>
+        <v>2.69</v>
       </c>
       <c r="U3">
-        <v>2.676428571428572</v>
+        <v>2.68</v>
       </c>
       <c r="V3">
         <v>0.79</v>
@@ -772,16 +772,16 @@
         <v>234.38</v>
       </c>
       <c r="R4">
-        <v>2.693571428571429</v>
+        <v>2.69</v>
       </c>
       <c r="S4">
-        <v>2.676428571428572</v>
+        <v>2.68</v>
       </c>
       <c r="T4">
-        <v>2.693571428571429</v>
+        <v>2.69</v>
       </c>
       <c r="U4">
-        <v>2.676428571428572</v>
+        <v>2.68</v>
       </c>
       <c r="V4">
         <v>1.05</v>
@@ -843,16 +843,16 @@
         <v>362.86</v>
       </c>
       <c r="R5">
-        <v>2.693571428571429</v>
+        <v>2.69</v>
       </c>
       <c r="S5">
-        <v>2.676428571428572</v>
+        <v>2.68</v>
       </c>
       <c r="T5">
-        <v>2.693571428571429</v>
+        <v>2.69</v>
       </c>
       <c r="U5">
-        <v>2.676428571428572</v>
+        <v>2.68</v>
       </c>
       <c r="V5">
         <v>2.33</v>
@@ -914,16 +914,16 @@
         <v>110.57</v>
       </c>
       <c r="R6">
-        <v>2.693571428571429</v>
+        <v>2.69</v>
       </c>
       <c r="S6">
-        <v>2.676428571428572</v>
+        <v>2.68</v>
       </c>
       <c r="T6">
-        <v>2.693571428571429</v>
+        <v>2.69</v>
       </c>
       <c r="U6">
-        <v>2.676428571428572</v>
+        <v>2.68</v>
       </c>
       <c r="V6">
         <v>2.35</v>
@@ -955,7 +955,7 @@
         <v>-95.33</v>
       </c>
       <c r="H7">
-        <v>0.6293750000000001</v>
+        <v>0.63</v>
       </c>
       <c r="I7">
         <v>-95.31999999999999</v>
@@ -985,16 +985,16 @@
         <v>11.8</v>
       </c>
       <c r="R7">
-        <v>2.693571428571429</v>
+        <v>2.69</v>
       </c>
       <c r="S7">
-        <v>2.676428571428572</v>
+        <v>2.68</v>
       </c>
       <c r="T7">
-        <v>2.693571428571429</v>
+        <v>2.69</v>
       </c>
       <c r="U7">
-        <v>2.676428571428572</v>
+        <v>2.68</v>
       </c>
       <c r="V7">
         <v>2.41</v>
@@ -1041,7 +1041,7 @@
         <v>-1.75</v>
       </c>
       <c r="M8">
-        <v>0.7609999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="N8">
         <v>-1.75</v>
@@ -1254,7 +1254,7 @@
         <v>-14.17</v>
       </c>
       <c r="M11">
-        <v>0.7609999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="N11">
         <v>-14.17</v>
@@ -1325,7 +1325,7 @@
         <v>-3.4</v>
       </c>
       <c r="M12">
-        <v>0.7609999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="N12">
         <v>-3.4</v>
@@ -1396,7 +1396,7 @@
         <v>-2.59</v>
       </c>
       <c r="M13">
-        <v>0.7609999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="N13">
         <v>-2.59</v>
@@ -1423,10 +1423,10 @@
         <v>-0.27</v>
       </c>
       <c r="V13">
-        <v>2.898181818181818</v>
+        <v>2.9</v>
       </c>
       <c r="W13">
-        <v>61.65545454545455</v>
+        <v>61.66</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1467,7 +1467,7 @@
         <v>-0.97</v>
       </c>
       <c r="M14">
-        <v>0.7609999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="N14">
         <v>-0.97</v>
@@ -1494,10 +1494,10 @@
         <v>-0.1</v>
       </c>
       <c r="V14">
-        <v>2.898181818181818</v>
+        <v>2.9</v>
       </c>
       <c r="W14">
-        <v>61.65545454545455</v>
+        <v>61.66</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1565,10 +1565,10 @@
         <v>-0.01</v>
       </c>
       <c r="V15">
-        <v>2.898181818181818</v>
+        <v>2.9</v>
       </c>
       <c r="W15">
-        <v>61.65545454545455</v>
+        <v>61.66</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1636,10 +1636,10 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="V16">
-        <v>2.898181818181818</v>
+        <v>2.9</v>
       </c>
       <c r="W16">
-        <v>61.65545454545455</v>
+        <v>61.66</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,10 +1647,10 @@
         <v>38</v>
       </c>
       <c r="B17">
-        <v>49.88352941176471</v>
+        <v>49.88</v>
       </c>
       <c r="C17">
-        <v>49.88411764705882</v>
+        <v>49.88</v>
       </c>
       <c r="D17">
         <v>0.11</v>
@@ -1665,7 +1665,7 @@
         <v>-0.19</v>
       </c>
       <c r="H17">
-        <v>0.6293750000000001</v>
+        <v>0.63</v>
       </c>
       <c r="I17">
         <v>-0.19</v>
@@ -1680,7 +1680,7 @@
         <v>-0.32</v>
       </c>
       <c r="M17">
-        <v>0.7609999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="N17">
         <v>-0.32</v>
@@ -1707,10 +1707,10 @@
         <v>-0.03</v>
       </c>
       <c r="V17">
-        <v>2.898181818181818</v>
+        <v>2.9</v>
       </c>
       <c r="W17">
-        <v>61.65545454545455</v>
+        <v>61.66</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,10 +1718,10 @@
         <v>39</v>
       </c>
       <c r="B18">
-        <v>49.88352941176471</v>
+        <v>49.88</v>
       </c>
       <c r="C18">
-        <v>49.88411764705882</v>
+        <v>49.88</v>
       </c>
       <c r="D18">
         <v>0.07000000000000001</v>
@@ -1742,7 +1742,7 @@
         <v>-1.08</v>
       </c>
       <c r="J18">
-        <v>0.8538888888888889</v>
+        <v>0.85</v>
       </c>
       <c r="K18">
         <v>-1.08</v>
@@ -1751,7 +1751,7 @@
         <v>12.67</v>
       </c>
       <c r="M18">
-        <v>0.7609999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="N18">
         <v>12.67</v>
@@ -1778,10 +1778,10 @@
         <v>40.92</v>
       </c>
       <c r="V18">
-        <v>2.898181818181818</v>
+        <v>2.9</v>
       </c>
       <c r="W18">
-        <v>61.65545454545455</v>
+        <v>61.66</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,10 +1789,10 @@
         <v>40</v>
       </c>
       <c r="B19">
-        <v>49.88352941176471</v>
+        <v>49.88</v>
       </c>
       <c r="C19">
-        <v>49.88411764705882</v>
+        <v>49.88</v>
       </c>
       <c r="D19">
         <v>0.21</v>
@@ -1807,13 +1807,13 @@
         <v>-1.31</v>
       </c>
       <c r="H19">
-        <v>0.6293750000000001</v>
+        <v>0.63</v>
       </c>
       <c r="I19">
         <v>-1.31</v>
       </c>
       <c r="J19">
-        <v>0.8538888888888889</v>
+        <v>0.85</v>
       </c>
       <c r="K19">
         <v>-1.31</v>
@@ -1822,7 +1822,7 @@
         <v>-2.95</v>
       </c>
       <c r="M19">
-        <v>0.7609999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="N19">
         <v>-2.95</v>
@@ -1849,10 +1849,10 @@
         <v>-0.29</v>
       </c>
       <c r="V19">
-        <v>2.898181818181818</v>
+        <v>2.9</v>
       </c>
       <c r="W19">
-        <v>61.65545454545455</v>
+        <v>61.66</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1893,7 +1893,7 @@
         <v>0.28</v>
       </c>
       <c r="M20">
-        <v>0.7609999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="N20">
         <v>0.28</v>
@@ -1920,10 +1920,10 @@
         <v>0.03</v>
       </c>
       <c r="V20">
-        <v>2.898181818181818</v>
+        <v>2.9</v>
       </c>
       <c r="W20">
-        <v>61.65545454545455</v>
+        <v>61.66</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,7 +1949,7 @@
         <v>-0.04</v>
       </c>
       <c r="H21">
-        <v>0.6293750000000001</v>
+        <v>0.63</v>
       </c>
       <c r="I21">
         <v>-0.04</v>
@@ -1964,7 +1964,7 @@
         <v>-0.15</v>
       </c>
       <c r="M21">
-        <v>0.7609999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="N21">
         <v>-0.15</v>
@@ -1991,10 +1991,10 @@
         <v>-0.01</v>
       </c>
       <c r="V21">
-        <v>2.898181818181818</v>
+        <v>2.9</v>
       </c>
       <c r="W21">
-        <v>61.65545454545455</v>
+        <v>61.66</v>
       </c>
     </row>
   </sheetData>
